--- a/Data/SRG/SRG.xlsx
+++ b/Data/SRG/SRG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliseSchramkowski\Documents\GitHub\thesis\Data sets\SRG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliseSchramkowski\Documents\GitHub\thesis\Data\SRG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E03A1F0-382B-4798-8063-8184A5A6FBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73018BF9-2F86-40C7-892A-C89132617996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1584" yWindow="0" windowWidth="15120" windowHeight="16680" xr2:uid="{6A34F014-8491-4486-9539-B866B091EBA7}"/>
+    <workbookView xWindow="1284" yWindow="3948" windowWidth="14508" windowHeight="16404" xr2:uid="{6A34F014-8491-4486-9539-B866B091EBA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="427">
   <si>
     <t>Journal</t>
   </si>
@@ -1500,6 +1500,15 @@
   </si>
   <si>
     <t>Harvard full (also called SAGE Harvard or SAGE)</t>
+  </si>
+  <si>
+    <t>% of total</t>
+  </si>
+  <si>
+    <t>Subtotals</t>
+  </si>
+  <si>
+    <t>Total number of journals</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1668,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1708,6 +1717,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2127,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE86DB32-737B-4117-89F2-EA768DA7B30F}">
-  <dimension ref="A1:V149"/>
+  <dimension ref="A1:V150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C120" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
@@ -5814,9 +5824,7 @@
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
-      <c r="P112" s="1">
-        <v>1</v>
-      </c>
+      <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1">
@@ -6892,7 +6900,7 @@
       </c>
       <c r="V144" s="1"/>
     </row>
-    <row r="145" spans="2:20" ht="12.75" customHeight="1">
+    <row r="145" spans="1:20" ht="12.75" customHeight="1">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -6912,36 +6920,229 @@
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
     </row>
-    <row r="146" spans="2:20" ht="12.75" customHeight="1">
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
-      <c r="S146" s="1"/>
-    </row>
-    <row r="147" spans="2:20" ht="12.75" customHeight="1">
-      <c r="K147" s="19"/>
-      <c r="S147" s="19"/>
-    </row>
-    <row r="148" spans="2:20" ht="12.75" customHeight="1">
-      <c r="S148" s="19"/>
-    </row>
-    <row r="149" spans="2:20" ht="12.75" customHeight="1">
+    <row r="146" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A146" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="B146" s="34">
+        <f>SUM(B2:B144)</f>
+        <v>10</v>
+      </c>
+      <c r="C146" s="34">
+        <f t="shared" ref="C146:S146" si="0">SUM(C2:C144)</f>
+        <v>10</v>
+      </c>
+      <c r="D146" s="34">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E146" s="34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F146" s="34">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G146" s="34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H146" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I146" s="34">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J146" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K146" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L146" s="34">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="M146" s="34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N146" s="34">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="O146" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P146" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q146" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R146" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S146" s="1">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A147" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="B147" s="34">
+        <f>(B146/143)*100</f>
+        <v>6.9930069930069934</v>
+      </c>
+      <c r="C147" s="34">
+        <f t="shared" ref="C147:S147" si="1">(C146/143)*100</f>
+        <v>6.9930069930069934</v>
+      </c>
+      <c r="D147" s="34">
+        <f t="shared" si="1"/>
+        <v>8.3916083916083917</v>
+      </c>
+      <c r="E147" s="34">
+        <f t="shared" si="1"/>
+        <v>2.0979020979020979</v>
+      </c>
+      <c r="F147" s="34">
+        <f t="shared" si="1"/>
+        <v>4.895104895104895</v>
+      </c>
+      <c r="G147" s="34">
+        <f t="shared" si="1"/>
+        <v>4.1958041958041958</v>
+      </c>
+      <c r="H147" s="34">
+        <f t="shared" si="1"/>
+        <v>1.3986013986013985</v>
+      </c>
+      <c r="I147" s="34">
+        <f t="shared" si="1"/>
+        <v>6.2937062937062942</v>
+      </c>
+      <c r="J147" s="34">
+        <f t="shared" si="1"/>
+        <v>0.69930069930069927</v>
+      </c>
+      <c r="K147" s="34">
+        <f t="shared" si="1"/>
+        <v>0.69930069930069927</v>
+      </c>
+      <c r="L147" s="34">
+        <f t="shared" si="1"/>
+        <v>23.776223776223777</v>
+      </c>
+      <c r="M147" s="34">
+        <f t="shared" si="1"/>
+        <v>2.7972027972027971</v>
+      </c>
+      <c r="N147" s="34">
+        <f t="shared" si="1"/>
+        <v>25.874125874125873</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="1"/>
+        <v>2.0979020979020979</v>
+      </c>
+      <c r="P147">
+        <f t="shared" si="1"/>
+        <v>1.3986013986013985</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" si="1"/>
+        <v>0.69930069930069927</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="1"/>
+        <v>0.69930069930069927</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="1"/>
+        <v>72.027972027972027</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A148" s="34"/>
+      <c r="B148" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G148" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H148" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="I148" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J148" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K148" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L148" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M148" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="N148" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="O148" t="s">
+        <v>13</v>
+      </c>
+      <c r="P148" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>15</v>
+      </c>
+      <c r="R148" t="s">
+        <v>16</v>
+      </c>
+      <c r="S148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" ht="12.75" customHeight="1">
       <c r="T149" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A150" t="s">
+        <v>426</v>
+      </c>
+      <c r="B150">
+        <f xml:space="preserve"> SUM(B146:R146)</f>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
